--- a/public/xlsx-sample.xlsx
+++ b/public/xlsx-sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\BST\BST_projects\Hihomie\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F70F855-8F28-4BA5-9EE0-36B3DA01DE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD3CB8-18D6-46EC-A98B-2CCB081FA2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{593DF571-D2C9-4B86-A8B1-C901E9DE5469}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>status_name</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>lead_title</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>lead_value</t>
   </si>
   <si>
-    <t>assigned</t>
-  </si>
-  <si>
     <t>type_of_opration</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>website</t>
+  </si>
+  <si>
+    <t>contacted</t>
+  </si>
+  <si>
+    <t>contract_signed</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,20 +175,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -507,42 +516,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EDE37D-FCF6-44D9-B8D7-8EFA0925F678}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -581,57 +592,86 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576" xr:uid="{498463D9-1C87-45D3-A52E-26F1A44F32F1}">
+      <formula1>"Spain,India,América,Austria,Canadá"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{E16F110D-DEED-46C3-AA8E-FB43E5307A42}">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{2AF0D1B6-5013-4ABC-9482-82EAC83E8BE0}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{E81D4608-82F1-400D-8339-1015147C65D5}">
+      <formula1>"Todavía buscando,Vivienda Seleccionada,Propiedad,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{A2DA492C-A0AC-4282-B2F6-779E4BC97012}">
+      <formula1>"Tomará tiempo,Urgente,Evaluando,Decidida"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{A90AACEF-70B0-4072-984D-B44D3A11E89B}">
+      <formula1>"Primera casa,Segunda casa,Inversión,Subrogación,Refinanciación"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{3E22C8D5-EF34-41C0-9327-A0B0A1C03D89}">
+      <formula1>"ceo,marketing_manager,hr_executive,sales_head,owner_founder,team_lead,agent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{71F42239-3DE8-46A9-AE67-27FDF0C377E2}">
+      <formula1>"Señor.,Señora."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{71FFE301-4482-4B5A-9B74-FE75A96CF47D}">
+      <formula1>"Appraisal,Descalificada,Pre Study,Denied,New Lead,Call Back,Housing Pending,Signature,Granted,Pending Documentation,Send to Bank,Fein"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/xlsx-sample.xlsx
+++ b/public/xlsx-sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\BST\BST_projects\Hihomie\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD3CB8-18D6-46EC-A98B-2CCB081FA2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6217FA45-1430-497D-B7C3-352DDE018929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{593DF571-D2C9-4B86-A8B1-C901E9DE5469}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,12 +200,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -516,9 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EDE37D-FCF6-44D9-B8D7-8EFA0925F678}">
   <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -553,19 +562,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -574,7 +583,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -586,16 +595,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P1" s="1" t="s">
